--- a/data/trans_orig/Q23-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Clase-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,15 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según edad a la que empezó a fumar tabaco</t>
+          <t>Edad media de inicio en el consumo de tabaco/marihuana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -666,52 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,12</t>
+          <t>17,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,47</t>
+          <t>17,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,86</t>
+          <t>17,96</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,96</t>
+          <t>17,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,36</t>
+          <t>17,09</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,32</t>
+          <t>17,54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,09</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>17,54</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>16,21</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>17,81</t>
+          <t>17,16</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,39; 17,0</t>
+          <t>16,38; 17,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,83; 17,75</t>
+          <t>16,87; 17,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,4; 17,39</t>
+          <t>16,68; 17,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,06; 17,96</t>
+          <t>17,32; 19,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,29; 19,05</t>
+          <t>17,31; 18,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,33; 19,1</t>
+          <t>16,75; 17,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,08; 19,14</t>
+          <t>16,81; 17,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,76; 19,06</t>
+          <t>17,18; 18,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,48</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>17,15; 18,03</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>15,08; 17,35</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>17,47; 18,21</t>
+          <t>16,8; 17,57</t>
         </is>
       </c>
     </row>
@@ -806,52 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,06</t>
+          <t>16,63</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,11</t>
+          <t>16,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,99</t>
+          <t>17,24</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,24</t>
+          <t>17,43</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,62</t>
+          <t>16,87</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,26</t>
+          <t>17,0</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,87</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>17,0</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>15,55</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>17,18</t>
+          <t>17,01</t>
         </is>
       </c>
     </row>
@@ -864,62 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,32; 17,27</t>
+          <t>16,33; 17,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,43; 17,21</t>
+          <t>16,46; 17,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,22; 15,82</t>
+          <t>16,13; 17,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 17,62</t>
+          <t>16,64; 17,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,66; 17,42</t>
+          <t>16,8; 17,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,81; 17,82</t>
+          <t>16,93; 18,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,88; 17,48</t>
+          <t>16,58; 17,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,72</t>
+          <t>16,72; 17,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,58; 17,2</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>16,71; 17,31</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>14,86; 16,16</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>16,86; 17,51</t>
+          <t>16,67; 17,57</t>
         </is>
       </c>
     </row>
@@ -946,12 +862,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,8</t>
+          <t>16,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,11</t>
+          <t>18,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,37 +877,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,19</t>
+          <t>19,22</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,66</t>
+          <t>16,82</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,05</t>
+          <t>16,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,82</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>16,84</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>14,99</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>16,19</t>
+          <t>16,9</t>
         </is>
       </c>
     </row>
@@ -1004,62 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,19; 17,09</t>
+          <t>16,21; 17,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,18; 16,83</t>
+          <t>16,12; 16,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,7; 15,78</t>
+          <t>16,0; 16,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,82; 16,47</t>
+          <t>17,18; 20,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,13; 19,84</t>
+          <t>17,52; 19,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,45; 19,45</t>
+          <t>17,86; 21,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,77; 24,22</t>
+          <t>16,44; 17,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,41; 17,75</t>
+          <t>16,52; 17,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,47; 17,36</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>16,54; 17,26</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>14,02; 16,21</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>15,89; 16,53</t>
+          <t>16,5; 17,5</t>
         </is>
       </c>
     </row>
@@ -1086,52 +972,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,1</t>
+          <t>16,43</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,5</t>
+          <t>17,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>17,4</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,4</t>
+          <t>17,57</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,27</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,21</t>
+          <t>16,58</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,48</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>16,58</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>16,15</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>16,75</t>
+          <t>16,87</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,03; 16,45</t>
+          <t>16,04; 16,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,92; 16,42</t>
+          <t>15,94; 16,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,31; 17,09</t>
+          <t>16,19; 16,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,22; 16,8</t>
+          <t>16,79; 17,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,78; 17,61</t>
+          <t>16,98; 18,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 18,07</t>
+          <t>17,19; 18,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,91; 19,75</t>
+          <t>16,29; 16,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,88; 17,67</t>
+          <t>16,38; 16,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,7</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>16,37; 16,86</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>15,38; 17,14</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>16,55; 17,0</t>
+          <t>16,65; 17,12</t>
         </is>
       </c>
     </row>
@@ -1226,52 +1082,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,63</t>
+          <t>16,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,45</t>
+          <t>17,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,68</t>
+          <t>17,5</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,5</t>
+          <t>17,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,71</t>
+          <t>16,76</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,41</t>
+          <t>16,87</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,76</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>16,87</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>15,43</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>16,91</t>
+          <t>16,79</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,58; 16,36</t>
+          <t>15,6; 16,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,0; 16,83</t>
+          <t>15,99; 16,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,85; 17,06</t>
+          <t>15,97; 16,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,99; 17,08</t>
+          <t>17,02; 18,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,05; 18,82</t>
+          <t>17,0; 18,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,0; 18,16</t>
+          <t>16,86; 18,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,34; 15,77</t>
+          <t>16,39; 17,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,06; 17,79</t>
+          <t>16,54; 17,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,39; 17,39</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>16,56; 17,22</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>14,8; 16,41</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>16,6; 17,29</t>
+          <t>16,49; 17,18</t>
         </is>
       </c>
     </row>
@@ -1366,52 +1192,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,33</t>
+          <t>15,83</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,35</t>
+          <t>17,65</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,65</t>
+          <t>18,14</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,14</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>15,6</t>
+          <t>17,09</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>17,74</t>
+          <t>17,63</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,09</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>17,63</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>15,43</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>17,43</t>
+          <t>17,53</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,15; 16,63</t>
+          <t>15,18; 16,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,37; 16,56</t>
+          <t>15,39; 16,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,25; 16,07</t>
+          <t>15,37; 16,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,45; 17,85</t>
+          <t>17,06; 18,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,11; 18,39</t>
+          <t>17,38; 19,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,42; 19,14</t>
+          <t>17,46; 19,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,7; 16,69</t>
+          <t>16,61; 17,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,23; 18,65</t>
+          <t>17,04; 18,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,67; 17,66</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>16,97; 18,39</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>14,71; 16,07</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>16,96; 18,25</t>
+          <t>17,02; 18,18</t>
         </is>
       </c>
     </row>
@@ -1506,17 +1302,17 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,55</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>17,47</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,47</t>
+          <t>17,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1526,32 +1322,17 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,95</t>
+          <t>16,75</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,48</t>
+          <t>16,92</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>16,92</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>15,66</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>16,9</t>
+          <t>16,96</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,21; 16,52</t>
+          <t>16,2; 16,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,62</t>
+          <t>16,31; 16,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,14; 16,03</t>
+          <t>16,3; 16,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,33; 16,76</t>
+          <t>17,21; 17,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,74</t>
+          <t>17,39; 17,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,39; 17,99</t>
+          <t>17,41; 17,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,36; 16,94</t>
+          <t>16,62; 16,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,3; 17,71</t>
+          <t>16,79; 17,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,61; 16,9</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>16,79; 17,09</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>15,32; 16,1</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>16,67; 17,07</t>
+          <t>16,83; 17,14</t>
         </is>
       </c>
     </row>
@@ -1632,16 +1398,16 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
